--- a/report/ml_perform_final_sampling.xlsx
+++ b/report/ml_perform_final_sampling.xlsx
@@ -1,20 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.rahmadi\Documents\Git_code\AdamThesis\report\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C340DD-611C-41AD-90C0-8F5A7F8E04CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="MAE" sheetId="2" r:id="rId1"/>
+    <sheet name="MSE" sheetId="3" r:id="rId2"/>
+    <sheet name="Pearson" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
+  <pivotCaches>
+    <pivotCache cacheId="18" r:id="rId5"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="22">
   <si>
     <t>mae</t>
   </si>
@@ -62,13 +74,31 @@
   </si>
   <si>
     <t>zomato_1000</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Average of mae</t>
+  </si>
+  <si>
+    <t>Average of mse</t>
+  </si>
+  <si>
+    <t>Average of pearson</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,18 +150,648 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Adam Aulia Rahmadi" refreshedDate="44889.501884953701" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="12" xr:uid="{A895A23C-2137-4752-8201-731CFD10BC88}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:I13" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="9">
+    <cacheField name="mae" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.12024" maxValue="0.14496000000000001"/>
+    </cacheField>
+    <cacheField name="mse" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.3310000000000001E-2" maxValue="3.3329999999999999E-2"/>
+    </cacheField>
+    <cacheField name="R2" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.45617000000000002" maxValue="0.98975999999999997"/>
+    </cacheField>
+    <cacheField name="name" numFmtId="0">
+      <sharedItems count="3">
+        <s v="rf"/>
+        <s v="xgb"/>
+        <s v="svr"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="feature_size" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="41" maxValue="60"/>
+    </cacheField>
+    <cacheField name="train_size" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="8519" maxValue="8519"/>
+    </cacheField>
+    <cacheField name="test_size" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1183" maxValue="1183"/>
+    </cacheField>
+    <cacheField name="pearson" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.37923000000000001" maxValue="0.46284999999999998"/>
+    </cacheField>
+    <cacheField name="dataset" numFmtId="0">
+      <sharedItems count="4">
+        <s v="zomato"/>
+        <s v="zomato_250"/>
+        <s v="zomato_500"/>
+        <s v="zomato_1000"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="12">
+  <r>
+    <n v="0.13202"/>
+    <n v="2.8379999999999999E-2"/>
+    <n v="0.91481000000000001"/>
+    <x v="0"/>
+    <n v="41"/>
+    <n v="8519"/>
+    <n v="1183"/>
+    <n v="0.37923000000000001"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="0.14496000000000001"/>
+    <n v="3.3210000000000003E-2"/>
+    <n v="0.65508"/>
+    <x v="1"/>
+    <n v="41"/>
+    <n v="8519"/>
+    <n v="1183"/>
+    <n v="0.39273000000000002"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="0.14313999999999999"/>
+    <n v="3.1980000000000001E-2"/>
+    <n v="0.45617000000000002"/>
+    <x v="2"/>
+    <n v="41"/>
+    <n v="8519"/>
+    <n v="1183"/>
+    <n v="0.39763999999999999"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="0.12314"/>
+    <n v="2.4490000000000001E-2"/>
+    <n v="0.97328000000000003"/>
+    <x v="0"/>
+    <n v="60"/>
+    <n v="8519"/>
+    <n v="1183"/>
+    <n v="0.42098000000000002"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="0.14133999999999999"/>
+    <n v="3.15E-2"/>
+    <n v="0.77125999999999995"/>
+    <x v="1"/>
+    <n v="60"/>
+    <n v="8519"/>
+    <n v="1183"/>
+    <n v="0.39351999999999998"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="0.14021"/>
+    <n v="3.1019999999999999E-2"/>
+    <n v="0.52085999999999999"/>
+    <x v="2"/>
+    <n v="60"/>
+    <n v="8519"/>
+    <n v="1183"/>
+    <n v="0.40355000000000002"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="0.12113"/>
+    <n v="2.366E-2"/>
+    <n v="0.98973"/>
+    <x v="0"/>
+    <n v="60"/>
+    <n v="8519"/>
+    <n v="1183"/>
+    <n v="0.44702999999999998"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="0.13736999999999999"/>
+    <n v="3.073E-2"/>
+    <n v="0.87373000000000001"/>
+    <x v="1"/>
+    <n v="60"/>
+    <n v="8519"/>
+    <n v="1183"/>
+    <n v="0.40239999999999998"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="0.14285999999999999"/>
+    <n v="3.2890000000000003E-2"/>
+    <n v="0.54315999999999998"/>
+    <x v="2"/>
+    <n v="60"/>
+    <n v="8519"/>
+    <n v="1183"/>
+    <n v="0.39507999999999999"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="0.12024"/>
+    <n v="2.3310000000000001E-2"/>
+    <n v="0.98975999999999997"/>
+    <x v="0"/>
+    <n v="60"/>
+    <n v="8519"/>
+    <n v="1183"/>
+    <n v="0.46284999999999998"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="0.13636000000000001"/>
+    <n v="2.9790000000000001E-2"/>
+    <n v="0.88751999999999998"/>
+    <x v="1"/>
+    <n v="60"/>
+    <n v="8519"/>
+    <n v="1183"/>
+    <n v="0.39757999999999999"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="0.14485000000000001"/>
+    <n v="3.3329999999999999E-2"/>
+    <n v="0.55805000000000005"/>
+    <x v="2"/>
+    <n v="60"/>
+    <n v="8519"/>
+    <n v="1183"/>
+    <n v="0.40354000000000001"/>
+    <x v="3"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{282237D1-C255-4019-AF69-E5501A1090F2}" name="PivotTable7" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="8"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of mae" fld="0" subtotal="average" baseField="8" baseItem="0"/>
+  </dataFields>
+  <conditionalFormats count="3">
+    <conditionalFormat priority="3">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="3" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="8" count="4">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="2">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="3" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="8" count="4">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="1">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="3" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="8" count="4">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{737D4BB0-2154-49BC-84B2-4BC9CFF0118B}" name="PivotTable8" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="8"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of mse" fld="1" subtotal="average" baseField="8" baseItem="0"/>
+  </dataFields>
+  <conditionalFormats count="3">
+    <conditionalFormat priority="3">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="3" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="8" count="4">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="2">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="3" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="8" count="4">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="1">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="3" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="8" count="4">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D62F4E04-C3BF-4196-B9EE-D6411B0AAF43}" name="PivotTable9" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="8"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of pearson" fld="7" subtotal="average" baseField="8" baseItem="0"/>
+  </dataFields>
+  <conditionalFormats count="3">
+    <conditionalFormat priority="3">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="3" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="8" count="4">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="2">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="3" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+            <reference field="8" count="4">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="1">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="3" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+            <reference field="8" count="4">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -177,7 +837,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -209,9 +869,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -243,6 +921,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -418,14 +1114,519 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE8EE8D-AD7F-4871-B69C-E3A6FE50F84B}">
+  <dimension ref="A3:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.13202</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.14313999999999999</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.14496000000000001</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.14003999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.12024</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.14485000000000001</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.13636000000000001</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.13381666666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.12314</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.14021</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.14133999999999999</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.13489666666666666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.12113</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.14285999999999999</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.13736999999999999</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.13378666666666666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.12413249999999999</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.14276499999999998</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.14000750000000001</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.13563499999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting pivot="1" sqref="B5:B8">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="C5:C8">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="D5:D8">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D71B5DE2-7B4D-47F1-A85F-98C09BB9C1F1}">
+  <dimension ref="A3:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2.8379999999999999E-2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3.1980000000000001E-2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3.3210000000000003E-2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3.1189999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2.3310000000000001E-2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>3.3329999999999999E-2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2.9790000000000001E-2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2.8809999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2.4490000000000001E-2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>3.1019999999999999E-2</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3.15E-2</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2.9003333333333336E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2.366E-2</v>
+      </c>
+      <c r="C8" s="4">
+        <v>3.2890000000000003E-2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>3.073E-2</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2.9093333333333332E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2.496E-2</v>
+      </c>
+      <c r="C9" s="4">
+        <v>3.2305E-2</v>
+      </c>
+      <c r="D9" s="4">
+        <v>3.1307500000000002E-2</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2.9524166666666667E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting pivot="1" sqref="B5:B8">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="C5:C8">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="D5:D8">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F1B5D00-CC80-473B-9973-7371611F91E1}">
+  <dimension ref="A3:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.37923000000000001</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.39763999999999999</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.39273000000000002</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.38986666666666664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.46284999999999998</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.40354000000000001</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.39757999999999999</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.42132333333333333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.42098000000000002</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.40355000000000002</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.39351999999999998</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.40601666666666664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.44702999999999998</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.39507999999999999</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.40239999999999998</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.41483666666666669</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.42752249999999997</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.39995250000000004</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.39655750000000001</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.40801083333333327</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting pivot="1" sqref="B5:B8">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="C5:C8">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="D5:D8">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -454,349 +1655,349 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0.11838</v>
+        <v>0.13202</v>
       </c>
       <c r="B2">
-        <v>0.02232</v>
+        <v>2.8379999999999999E-2</v>
       </c>
       <c r="C2">
-        <v>0.97736</v>
+        <v>0.91481000000000001</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F2">
-        <v>7296</v>
+        <v>8519</v>
       </c>
       <c r="G2">
-        <v>1825</v>
+        <v>1183</v>
       </c>
       <c r="H2">
-        <v>0.84534</v>
+        <v>0.37923000000000001</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0.15621</v>
+        <v>0.14496000000000001</v>
       </c>
       <c r="B3">
-        <v>0.03996</v>
+        <v>3.3210000000000003E-2</v>
       </c>
       <c r="C3">
-        <v>0.73595</v>
+        <v>0.65508</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3">
-        <v>7296</v>
+        <v>8519</v>
       </c>
       <c r="G3">
-        <v>1825</v>
+        <v>1183</v>
       </c>
       <c r="H3">
-        <v>0.65494</v>
+        <v>0.39273000000000002</v>
       </c>
       <c r="I3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>0.1604</v>
+        <v>0.14313999999999999</v>
       </c>
       <c r="B4">
-        <v>0.03986</v>
+        <v>3.1980000000000001E-2</v>
       </c>
       <c r="C4">
-        <v>0.45625</v>
+        <v>0.45617000000000002</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4">
-        <v>7296</v>
+        <v>8519</v>
       </c>
       <c r="G4">
-        <v>1825</v>
+        <v>1183</v>
       </c>
       <c r="H4">
-        <v>0.62686</v>
+        <v>0.39763999999999999</v>
       </c>
       <c r="I4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>0.10217</v>
+        <v>0.12314</v>
       </c>
       <c r="B5">
-        <v>0.01589</v>
+        <v>2.4490000000000001E-2</v>
       </c>
       <c r="C5">
-        <v>0.97381</v>
+        <v>0.97328000000000003</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="E5">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F5">
-        <v>7296</v>
+        <v>8519</v>
       </c>
       <c r="G5">
-        <v>1825</v>
+        <v>1183</v>
       </c>
       <c r="H5">
-        <v>0.89778</v>
+        <v>0.42098000000000002</v>
       </c>
       <c r="I5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>0.13984</v>
+        <v>0.14133999999999999</v>
       </c>
       <c r="B6">
-        <v>0.03146</v>
+        <v>3.15E-2</v>
       </c>
       <c r="C6">
-        <v>0.7833</v>
+        <v>0.77125999999999995</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="E6">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F6">
-        <v>7296</v>
+        <v>8519</v>
       </c>
       <c r="G6">
-        <v>1825</v>
+        <v>1183</v>
       </c>
       <c r="H6">
-        <v>0.7407899999999999</v>
+        <v>0.39351999999999998</v>
       </c>
       <c r="I6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>0.15479</v>
+        <v>0.14021</v>
       </c>
       <c r="B7">
-        <v>0.03687</v>
+        <v>3.1019999999999999E-2</v>
       </c>
       <c r="C7">
-        <v>0.50103</v>
+        <v>0.52085999999999999</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
       </c>
       <c r="E7">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F7">
-        <v>7296</v>
+        <v>8519</v>
       </c>
       <c r="G7">
-        <v>1825</v>
+        <v>1183</v>
       </c>
       <c r="H7">
-        <v>0.66587</v>
+        <v>0.40355000000000002</v>
       </c>
       <c r="I7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>0.09487</v>
+        <v>0.12113</v>
       </c>
       <c r="B8">
-        <v>0.0126</v>
+        <v>2.366E-2</v>
       </c>
       <c r="C8">
-        <v>0.98548</v>
+        <v>0.98973</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="E8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F8">
-        <v>7296</v>
+        <v>8519</v>
       </c>
       <c r="G8">
-        <v>1825</v>
+        <v>1183</v>
       </c>
       <c r="H8">
-        <v>0.92921</v>
+        <v>0.44702999999999998</v>
       </c>
       <c r="I8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>0.12477</v>
+        <v>0.13736999999999999</v>
       </c>
       <c r="B9">
-        <v>0.02377</v>
+        <v>3.073E-2</v>
       </c>
       <c r="C9">
-        <v>0.86084</v>
+        <v>0.87373000000000001</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
       <c r="E9">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F9">
-        <v>7296</v>
+        <v>8519</v>
       </c>
       <c r="G9">
-        <v>1825</v>
+        <v>1183</v>
       </c>
       <c r="H9">
-        <v>0.80707</v>
+        <v>0.40239999999999998</v>
       </c>
       <c r="I9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>0.14954</v>
+        <v>0.14285999999999999</v>
       </c>
       <c r="B10">
-        <v>0.03433</v>
+        <v>3.2890000000000003E-2</v>
       </c>
       <c r="C10">
-        <v>0.5225</v>
+        <v>0.54315999999999998</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
       </c>
       <c r="E10">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F10">
-        <v>7296</v>
+        <v>8519</v>
       </c>
       <c r="G10">
-        <v>1825</v>
+        <v>1183</v>
       </c>
       <c r="H10">
-        <v>0.69669</v>
+        <v>0.39507999999999999</v>
       </c>
       <c r="I10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>0.12867</v>
+        <v>0.12024</v>
       </c>
       <c r="B11">
-        <v>0.02193</v>
+        <v>2.3310000000000001E-2</v>
       </c>
       <c r="C11">
-        <v>0.98495</v>
+        <v>0.98975999999999997</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
       </c>
       <c r="E11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F11">
-        <v>7296</v>
+        <v>8519</v>
       </c>
       <c r="G11">
-        <v>1825</v>
+        <v>1183</v>
       </c>
       <c r="H11">
-        <v>0.89803</v>
+        <v>0.46284999999999998</v>
       </c>
       <c r="I11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>0.147</v>
+        <v>0.13636000000000001</v>
       </c>
       <c r="B12">
-        <v>0.03086</v>
+        <v>2.9790000000000001E-2</v>
       </c>
       <c r="C12">
-        <v>0.86639</v>
+        <v>0.88751999999999998</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
       </c>
       <c r="E12">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F12">
-        <v>7296</v>
+        <v>8519</v>
       </c>
       <c r="G12">
-        <v>1825</v>
+        <v>1183</v>
       </c>
       <c r="H12">
-        <v>0.75078</v>
+        <v>0.39757999999999999</v>
       </c>
       <c r="I12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>0.15007</v>
+        <v>0.14485000000000001</v>
       </c>
       <c r="B13">
-        <v>0.03533</v>
+        <v>3.3329999999999999E-2</v>
       </c>
       <c r="C13">
-        <v>0.54845</v>
+        <v>0.55805000000000005</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
       </c>
       <c r="E13">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F13">
-        <v>7296</v>
+        <v>8519</v>
       </c>
       <c r="G13">
-        <v>1825</v>
+        <v>1183</v>
       </c>
       <c r="H13">
-        <v>0.68119</v>
+        <v>0.40354000000000001</v>
       </c>
       <c r="I13" t="s">
         <v>15</v>

--- a/report/ml_perform_final_sampling.xlsx
+++ b/report/ml_perform_final_sampling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.rahmadi\Documents\Git_code\AdamThesis\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C340DD-611C-41AD-90C0-8F5A7F8E04CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8080661A-6811-48FC-9704-98277CAC7E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAE" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="18" r:id="rId5"/>
+    <pivotCache cacheId="21" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -366,7 +366,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{282237D1-C255-4019-AF69-E5501A1090F2}" name="PivotTable7" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{282237D1-C255-4019-AF69-E5501A1090F2}" name="PivotTable7" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField dataField="1" showAll="0"/>
@@ -435,7 +435,7 @@
     <dataField name="Average of mae" fld="0" subtotal="average" baseField="8" baseItem="0"/>
   </dataFields>
   <conditionalFormats count="3">
-    <conditionalFormat priority="3">
+    <conditionalFormat priority="1">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -443,7 +443,7 @@
               <x v="0"/>
             </reference>
             <reference field="3" count="1" selected="0">
-              <x v="0"/>
+              <x v="2"/>
             </reference>
             <reference field="8" count="4">
               <x v="0"/>
@@ -475,7 +475,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="1">
+    <conditionalFormat priority="3">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -483,7 +483,7 @@
               <x v="0"/>
             </reference>
             <reference field="3" count="1" selected="0">
-              <x v="2"/>
+              <x v="0"/>
             </reference>
             <reference field="8" count="4">
               <x v="0"/>
@@ -509,7 +509,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{737D4BB0-2154-49BC-84B2-4BC9CFF0118B}" name="PivotTable8" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{737D4BB0-2154-49BC-84B2-4BC9CFF0118B}" name="PivotTable8" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -578,7 +578,7 @@
     <dataField name="Average of mse" fld="1" subtotal="average" baseField="8" baseItem="0"/>
   </dataFields>
   <conditionalFormats count="3">
-    <conditionalFormat priority="3">
+    <conditionalFormat priority="1">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -586,7 +586,7 @@
               <x v="0"/>
             </reference>
             <reference field="3" count="1" selected="0">
-              <x v="0"/>
+              <x v="2"/>
             </reference>
             <reference field="8" count="4">
               <x v="0"/>
@@ -618,7 +618,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="1">
+    <conditionalFormat priority="3">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -626,7 +626,7 @@
               <x v="0"/>
             </reference>
             <reference field="3" count="1" selected="0">
-              <x v="2"/>
+              <x v="0"/>
             </reference>
             <reference field="8" count="4">
               <x v="0"/>
@@ -652,7 +652,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D62F4E04-C3BF-4196-B9EE-D6411B0AAF43}" name="PivotTable9" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D62F4E04-C3BF-4196-B9EE-D6411B0AAF43}" name="PivotTable9" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -721,7 +721,7 @@
     <dataField name="Average of pearson" fld="7" subtotal="average" baseField="8" baseItem="0"/>
   </dataFields>
   <conditionalFormats count="3">
-    <conditionalFormat priority="3">
+    <conditionalFormat priority="1">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -729,7 +729,7 @@
               <x v="0"/>
             </reference>
             <reference field="3" count="1" selected="0">
-              <x v="0"/>
+              <x v="2"/>
             </reference>
             <reference field="8" count="4">
               <x v="0"/>
@@ -761,7 +761,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="1">
+    <conditionalFormat priority="3">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -769,7 +769,7 @@
               <x v="0"/>
             </reference>
             <reference field="3" count="1" selected="0">
-              <x v="2"/>
+              <x v="0"/>
             </reference>
             <reference field="8" count="4">
               <x v="0"/>
@@ -1117,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE8EE8D-AD7F-4871-B69C-E3A6FE50F84B}">
   <dimension ref="A3:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1286,7 +1286,7 @@
   <dimension ref="A3:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1454,7 +1454,7 @@
   <dimension ref="A3:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B5" sqref="B5:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1620,7 +1620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>

--- a/report/ml_perform_final_sampling.xlsx
+++ b/report/ml_perform_final_sampling.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.rahmadi\Documents\Git_code\AdamThesis\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8080661A-6811-48FC-9704-98277CAC7E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D505800C-67A0-4951-8E94-C15E2CA48975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAE" sheetId="2" r:id="rId1"/>
@@ -18,10 +18,23 @@
     <sheet name="Pearson" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="21" r:id="rId5"/>
+    <pivotCache cacheId="53" r:id="rId5"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -366,7 +379,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{282237D1-C255-4019-AF69-E5501A1090F2}" name="PivotTable7" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{282237D1-C255-4019-AF69-E5501A1090F2}" name="PivotTable7" cacheId="53" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField dataField="1" showAll="0"/>
@@ -435,7 +448,7 @@
     <dataField name="Average of mae" fld="0" subtotal="average" baseField="8" baseItem="0"/>
   </dataFields>
   <conditionalFormats count="3">
-    <conditionalFormat priority="1">
+    <conditionalFormat priority="3">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -443,7 +456,7 @@
               <x v="0"/>
             </reference>
             <reference field="3" count="1" selected="0">
-              <x v="2"/>
+              <x v="0"/>
             </reference>
             <reference field="8" count="4">
               <x v="0"/>
@@ -475,7 +488,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="3">
+    <conditionalFormat priority="1">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -483,7 +496,7 @@
               <x v="0"/>
             </reference>
             <reference field="3" count="1" selected="0">
-              <x v="0"/>
+              <x v="2"/>
             </reference>
             <reference field="8" count="4">
               <x v="0"/>
@@ -509,7 +522,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{737D4BB0-2154-49BC-84B2-4BC9CFF0118B}" name="PivotTable8" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{737D4BB0-2154-49BC-84B2-4BC9CFF0118B}" name="PivotTable8" cacheId="53" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -578,7 +591,7 @@
     <dataField name="Average of mse" fld="1" subtotal="average" baseField="8" baseItem="0"/>
   </dataFields>
   <conditionalFormats count="3">
-    <conditionalFormat priority="1">
+    <conditionalFormat priority="3">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -586,7 +599,7 @@
               <x v="0"/>
             </reference>
             <reference field="3" count="1" selected="0">
-              <x v="2"/>
+              <x v="0"/>
             </reference>
             <reference field="8" count="4">
               <x v="0"/>
@@ -618,7 +631,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="3">
+    <conditionalFormat priority="1">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -626,7 +639,7 @@
               <x v="0"/>
             </reference>
             <reference field="3" count="1" selected="0">
-              <x v="0"/>
+              <x v="2"/>
             </reference>
             <reference field="8" count="4">
               <x v="0"/>
@@ -652,7 +665,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D62F4E04-C3BF-4196-B9EE-D6411B0AAF43}" name="PivotTable9" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D62F4E04-C3BF-4196-B9EE-D6411B0AAF43}" name="PivotTable9" cacheId="53" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -721,7 +734,7 @@
     <dataField name="Average of pearson" fld="7" subtotal="average" baseField="8" baseItem="0"/>
   </dataFields>
   <conditionalFormats count="3">
-    <conditionalFormat priority="1">
+    <conditionalFormat priority="3">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -729,7 +742,7 @@
               <x v="0"/>
             </reference>
             <reference field="3" count="1" selected="0">
-              <x v="2"/>
+              <x v="0"/>
             </reference>
             <reference field="8" count="4">
               <x v="0"/>
@@ -761,7 +774,7 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat priority="3">
+    <conditionalFormat priority="1">
       <pivotAreas count="1">
         <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
           <references count="3">
@@ -769,7 +782,7 @@
               <x v="0"/>
             </reference>
             <reference field="3" count="1" selected="0">
-              <x v="0"/>
+              <x v="2"/>
             </reference>
             <reference field="8" count="4">
               <x v="0"/>
@@ -1117,8 +1130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE8EE8D-AD7F-4871-B69C-E3A6FE50F84B}">
   <dimension ref="A3:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1278,6 +1291,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1286,7 +1300,7 @@
   <dimension ref="A3:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="B5" sqref="B5:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1446,6 +1460,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1453,7 +1468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F1B5D00-CC80-473B-9973-7371611F91E1}">
   <dimension ref="A3:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:D8"/>
     </sheetView>
   </sheetViews>
@@ -1613,6 +1628,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
